--- a/2022/Symphony/OCTOBER/18.10.2022/MC Bank Statement Sep-2022.xlsx
+++ b/2022/Symphony/OCTOBER/18.10.2022/MC Bank Statement Sep-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -2244,7 +2244,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="409">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3081,9 +3081,6 @@
     <xf numFmtId="1" fontId="37" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="37" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3288,45 +3285,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="35" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="35" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="35" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="35" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3419,6 +3416,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="43" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="37" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4129,33 +4147,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="357"/>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
+      <c r="A1" s="356"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="358"/>
-      <c r="B2" s="355" t="s">
+      <c r="A2" s="357"/>
+      <c r="B2" s="354" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="355"/>
-      <c r="D2" s="355"/>
-      <c r="E2" s="355"/>
+      <c r="C2" s="354"/>
+      <c r="D2" s="354"/>
+      <c r="E2" s="354"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="358"/>
-      <c r="B3" s="356" t="s">
+      <c r="A3" s="357"/>
+      <c r="B3" s="355" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="355"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="358"/>
+      <c r="A4" s="357"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4173,7 +4191,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="358"/>
+      <c r="A5" s="357"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4191,7 +4209,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="358"/>
+      <c r="A6" s="357"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4203,7 +4221,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="358"/>
+      <c r="A7" s="357"/>
       <c r="B7" s="26" t="s">
         <v>43</v>
       </c>
@@ -4222,7 +4240,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="358"/>
+      <c r="A8" s="357"/>
       <c r="B8" s="26" t="s">
         <v>44</v>
       </c>
@@ -4241,7 +4259,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="358"/>
+      <c r="A9" s="357"/>
       <c r="B9" s="26" t="s">
         <v>46</v>
       </c>
@@ -4260,7 +4278,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="358"/>
+      <c r="A10" s="357"/>
       <c r="B10" s="26" t="s">
         <v>47</v>
       </c>
@@ -4279,7 +4297,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="358"/>
+      <c r="A11" s="357"/>
       <c r="B11" s="26" t="s">
         <v>48</v>
       </c>
@@ -4298,7 +4316,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="358"/>
+      <c r="A12" s="357"/>
       <c r="B12" s="26" t="s">
         <v>49</v>
       </c>
@@ -4317,7 +4335,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="358"/>
+      <c r="A13" s="357"/>
       <c r="B13" s="26" t="s">
         <v>50</v>
       </c>
@@ -4336,7 +4354,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="358"/>
+      <c r="A14" s="357"/>
       <c r="B14" s="26" t="s">
         <v>51</v>
       </c>
@@ -4355,7 +4373,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="358"/>
+      <c r="A15" s="357"/>
       <c r="B15" s="26" t="s">
         <v>52</v>
       </c>
@@ -4374,7 +4392,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="358"/>
+      <c r="A16" s="357"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4387,7 +4405,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="358"/>
+      <c r="A17" s="357"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4400,7 +4418,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="358"/>
+      <c r="A18" s="357"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4413,7 +4431,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="358"/>
+      <c r="A19" s="357"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4426,7 +4444,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="358"/>
+      <c r="A20" s="357"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4439,7 +4457,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="358"/>
+      <c r="A21" s="357"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4452,7 +4470,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="358"/>
+      <c r="A22" s="357"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4465,7 +4483,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="358"/>
+      <c r="A23" s="357"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4478,7 +4496,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="358"/>
+      <c r="A24" s="357"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4491,7 +4509,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="358"/>
+      <c r="A25" s="357"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4504,7 +4522,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="358"/>
+      <c r="A26" s="357"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4517,7 +4535,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="358"/>
+      <c r="A27" s="357"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4530,7 +4548,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="358"/>
+      <c r="A28" s="357"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4543,7 +4561,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="358"/>
+      <c r="A29" s="357"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4556,7 +4574,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="358"/>
+      <c r="A30" s="357"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4569,7 +4587,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="358"/>
+      <c r="A31" s="357"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4582,7 +4600,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="358"/>
+      <c r="A32" s="357"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4595,7 +4613,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="358"/>
+      <c r="A33" s="357"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4608,7 +4626,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="358"/>
+      <c r="A34" s="357"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4621,7 +4639,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="358"/>
+      <c r="A35" s="357"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4634,7 +4652,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="358"/>
+      <c r="A36" s="357"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4647,7 +4665,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="358"/>
+      <c r="A37" s="357"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4660,7 +4678,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="358"/>
+      <c r="A38" s="357"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4673,7 +4691,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="358"/>
+      <c r="A39" s="357"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4686,7 +4704,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="358"/>
+      <c r="A40" s="357"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4699,7 +4717,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="358"/>
+      <c r="A41" s="357"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4712,7 +4730,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="358"/>
+      <c r="A42" s="357"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4725,7 +4743,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="358"/>
+      <c r="A43" s="357"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4738,7 +4756,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="358"/>
+      <c r="A44" s="357"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4751,7 +4769,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="358"/>
+      <c r="A45" s="357"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4764,7 +4782,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="358"/>
+      <c r="A46" s="357"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4777,7 +4795,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="358"/>
+      <c r="A47" s="357"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4790,7 +4808,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="358"/>
+      <c r="A48" s="357"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4803,7 +4821,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="358"/>
+      <c r="A49" s="357"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4816,7 +4834,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="358"/>
+      <c r="A50" s="357"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4829,7 +4847,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="358"/>
+      <c r="A51" s="357"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4842,7 +4860,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="358"/>
+      <c r="A52" s="357"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4855,7 +4873,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="358"/>
+      <c r="A53" s="357"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4868,7 +4886,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="358"/>
+      <c r="A54" s="357"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4881,7 +4899,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="358"/>
+      <c r="A55" s="357"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4893,7 +4911,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="358"/>
+      <c r="A56" s="357"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4905,7 +4923,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="358"/>
+      <c r="A57" s="357"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4917,7 +4935,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="358"/>
+      <c r="A58" s="357"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4929,7 +4947,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="358"/>
+      <c r="A59" s="357"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4941,7 +4959,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="358"/>
+      <c r="A60" s="357"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4953,7 +4971,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="358"/>
+      <c r="A61" s="357"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4965,7 +4983,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="358"/>
+      <c r="A62" s="357"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4977,7 +4995,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="358"/>
+      <c r="A63" s="357"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4989,7 +5007,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="358"/>
+      <c r="A64" s="357"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5001,7 +5019,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="358"/>
+      <c r="A65" s="357"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5013,7 +5031,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="358"/>
+      <c r="A66" s="357"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5025,7 +5043,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="358"/>
+      <c r="A67" s="357"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5037,7 +5055,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="358"/>
+      <c r="A68" s="357"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5049,7 +5067,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="358"/>
+      <c r="A69" s="357"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5061,7 +5079,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="358"/>
+      <c r="A70" s="357"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5073,7 +5091,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="358"/>
+      <c r="A71" s="357"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5085,7 +5103,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="358"/>
+      <c r="A72" s="357"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5097,7 +5115,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="358"/>
+      <c r="A73" s="357"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5109,7 +5127,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="358"/>
+      <c r="A74" s="357"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5121,7 +5139,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="358"/>
+      <c r="A75" s="357"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5133,7 +5151,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="358"/>
+      <c r="A76" s="357"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5145,7 +5163,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="358"/>
+      <c r="A77" s="357"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5157,7 +5175,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="358"/>
+      <c r="A78" s="357"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5169,7 +5187,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="358"/>
+      <c r="A79" s="357"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5181,7 +5199,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="358"/>
+      <c r="A80" s="357"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5193,7 +5211,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="358"/>
+      <c r="A81" s="357"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5205,7 +5223,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="358"/>
+      <c r="A82" s="357"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5217,7 +5235,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="358"/>
+      <c r="A83" s="357"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5272,32 +5290,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A1" s="357"/>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
+      <c r="A1" s="356"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
     </row>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="358"/>
-      <c r="B2" s="355" t="s">
+      <c r="A2" s="357"/>
+      <c r="B2" s="354" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="355"/>
-      <c r="D2" s="355"/>
-      <c r="E2" s="355"/>
+      <c r="C2" s="354"/>
+      <c r="D2" s="354"/>
+      <c r="E2" s="354"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A3" s="358"/>
-      <c r="B3" s="356" t="s">
+      <c r="A3" s="357"/>
+      <c r="B3" s="355" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="355"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="358"/>
+      <c r="A4" s="357"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5312,7 +5330,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="358"/>
+      <c r="A5" s="357"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5328,7 +5346,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="358"/>
+      <c r="A6" s="357"/>
       <c r="B6" s="26"/>
       <c r="C6" s="247"/>
       <c r="D6" s="247"/>
@@ -5338,7 +5356,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="358"/>
+      <c r="A7" s="357"/>
       <c r="B7" s="26" t="s">
         <v>197</v>
       </c>
@@ -5354,7 +5372,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="358"/>
+      <c r="A8" s="357"/>
       <c r="B8" s="26" t="s">
         <v>203</v>
       </c>
@@ -5370,7 +5388,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="358"/>
+      <c r="A9" s="357"/>
       <c r="B9" s="26" t="s">
         <v>205</v>
       </c>
@@ -5386,7 +5404,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="358"/>
+      <c r="A10" s="357"/>
       <c r="B10" s="26" t="s">
         <v>207</v>
       </c>
@@ -5402,7 +5420,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="358"/>
+      <c r="A11" s="357"/>
       <c r="B11" s="26" t="s">
         <v>217</v>
       </c>
@@ -5418,7 +5436,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="358"/>
+      <c r="A12" s="357"/>
       <c r="B12" s="26" t="s">
         <v>219</v>
       </c>
@@ -5434,7 +5452,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="358"/>
+      <c r="A13" s="357"/>
       <c r="B13" s="26" t="s">
         <v>221</v>
       </c>
@@ -5450,7 +5468,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="358"/>
+      <c r="A14" s="357"/>
       <c r="B14" s="26" t="s">
         <v>227</v>
       </c>
@@ -5466,7 +5484,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="358"/>
+      <c r="A15" s="357"/>
       <c r="B15" s="26" t="s">
         <v>229</v>
       </c>
@@ -5482,7 +5500,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="358"/>
+      <c r="A16" s="357"/>
       <c r="B16" s="26" t="s">
         <v>231</v>
       </c>
@@ -5498,7 +5516,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="358"/>
+      <c r="A17" s="357"/>
       <c r="B17" s="26" t="s">
         <v>232</v>
       </c>
@@ -5514,7 +5532,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="358"/>
+      <c r="A18" s="357"/>
       <c r="B18" s="26" t="s">
         <v>234</v>
       </c>
@@ -5530,11 +5548,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="358"/>
+      <c r="A19" s="357"/>
       <c r="B19" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="352">
+      <c r="C19" s="351">
         <v>100000</v>
       </c>
       <c r="D19" s="249">
@@ -5544,12 +5562,12 @@
         <f t="shared" si="0"/>
         <v>37238</v>
       </c>
-      <c r="F19" s="353" t="s">
+      <c r="F19" s="352" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="358"/>
+      <c r="A20" s="357"/>
       <c r="B20" s="26" t="s">
         <v>236</v>
       </c>
@@ -5565,7 +5583,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="358"/>
+      <c r="A21" s="357"/>
       <c r="B21" s="26" t="s">
         <v>237</v>
       </c>
@@ -5581,7 +5599,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="358"/>
+      <c r="A22" s="357"/>
       <c r="B22" s="26" t="s">
         <v>241</v>
       </c>
@@ -5597,7 +5615,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="358"/>
+      <c r="A23" s="357"/>
       <c r="B23" s="26" t="s">
         <v>246</v>
       </c>
@@ -5613,7 +5631,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="358"/>
+      <c r="A24" s="357"/>
       <c r="B24" s="26"/>
       <c r="C24" s="247"/>
       <c r="D24" s="247"/>
@@ -5623,7 +5641,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="358"/>
+      <c r="A25" s="357"/>
       <c r="B25" s="26"/>
       <c r="C25" s="247"/>
       <c r="D25" s="247"/>
@@ -5633,7 +5651,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="358"/>
+      <c r="A26" s="357"/>
       <c r="B26" s="26"/>
       <c r="C26" s="247"/>
       <c r="D26" s="247"/>
@@ -5643,7 +5661,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="358"/>
+      <c r="A27" s="357"/>
       <c r="B27" s="26"/>
       <c r="C27" s="247"/>
       <c r="D27" s="247"/>
@@ -5653,7 +5671,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="358"/>
+      <c r="A28" s="357"/>
       <c r="B28" s="26"/>
       <c r="C28" s="247"/>
       <c r="D28" s="247"/>
@@ -5663,7 +5681,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="358"/>
+      <c r="A29" s="357"/>
       <c r="B29" s="26"/>
       <c r="C29" s="247"/>
       <c r="D29" s="247"/>
@@ -5673,7 +5691,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="358"/>
+      <c r="A30" s="357"/>
       <c r="B30" s="26"/>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -5683,7 +5701,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="358"/>
+      <c r="A31" s="357"/>
       <c r="B31" s="26"/>
       <c r="C31" s="247"/>
       <c r="D31" s="247"/>
@@ -5693,7 +5711,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="358"/>
+      <c r="A32" s="357"/>
       <c r="B32" s="26"/>
       <c r="C32" s="247"/>
       <c r="D32" s="247"/>
@@ -5703,7 +5721,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="358"/>
+      <c r="A33" s="357"/>
       <c r="B33" s="26"/>
       <c r="C33" s="247"/>
       <c r="D33" s="249"/>
@@ -5713,7 +5731,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="358"/>
+      <c r="A34" s="357"/>
       <c r="B34" s="26"/>
       <c r="C34" s="247"/>
       <c r="D34" s="247"/>
@@ -5723,7 +5741,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="358"/>
+      <c r="A35" s="357"/>
       <c r="B35" s="26"/>
       <c r="C35" s="247"/>
       <c r="D35" s="247"/>
@@ -5733,7 +5751,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="358"/>
+      <c r="A36" s="357"/>
       <c r="B36" s="26"/>
       <c r="C36" s="247"/>
       <c r="D36" s="247"/>
@@ -5743,7 +5761,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="358"/>
+      <c r="A37" s="357"/>
       <c r="B37" s="26"/>
       <c r="C37" s="247"/>
       <c r="D37" s="247"/>
@@ -5753,7 +5771,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="358"/>
+      <c r="A38" s="357"/>
       <c r="B38" s="26"/>
       <c r="C38" s="247"/>
       <c r="D38" s="247"/>
@@ -5763,7 +5781,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="358"/>
+      <c r="A39" s="357"/>
       <c r="B39" s="26"/>
       <c r="C39" s="247"/>
       <c r="D39" s="247"/>
@@ -5773,7 +5791,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="358"/>
+      <c r="A40" s="357"/>
       <c r="B40" s="26"/>
       <c r="C40" s="247"/>
       <c r="D40" s="247"/>
@@ -5783,7 +5801,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="358"/>
+      <c r="A41" s="357"/>
       <c r="B41" s="26"/>
       <c r="C41" s="247"/>
       <c r="D41" s="247"/>
@@ -5793,7 +5811,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="358"/>
+      <c r="A42" s="357"/>
       <c r="B42" s="26"/>
       <c r="C42" s="247"/>
       <c r="D42" s="247"/>
@@ -5803,7 +5821,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="358"/>
+      <c r="A43" s="357"/>
       <c r="B43" s="26"/>
       <c r="C43" s="247"/>
       <c r="D43" s="247"/>
@@ -5813,7 +5831,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="358"/>
+      <c r="A44" s="357"/>
       <c r="B44" s="26"/>
       <c r="C44" s="247"/>
       <c r="D44" s="247"/>
@@ -5823,7 +5841,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="358"/>
+      <c r="A45" s="357"/>
       <c r="B45" s="26"/>
       <c r="C45" s="247"/>
       <c r="D45" s="247"/>
@@ -5833,7 +5851,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="358"/>
+      <c r="A46" s="357"/>
       <c r="B46" s="26"/>
       <c r="C46" s="247"/>
       <c r="D46" s="247"/>
@@ -5843,7 +5861,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="358"/>
+      <c r="A47" s="357"/>
       <c r="B47" s="26"/>
       <c r="C47" s="247"/>
       <c r="D47" s="247"/>
@@ -5853,7 +5871,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="358"/>
+      <c r="A48" s="357"/>
       <c r="B48" s="26"/>
       <c r="C48" s="247"/>
       <c r="D48" s="247"/>
@@ -5863,7 +5881,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="358"/>
+      <c r="A49" s="357"/>
       <c r="B49" s="26"/>
       <c r="C49" s="247"/>
       <c r="D49" s="247"/>
@@ -5873,7 +5891,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="358"/>
+      <c r="A50" s="357"/>
       <c r="B50" s="26"/>
       <c r="C50" s="247"/>
       <c r="D50" s="247"/>
@@ -5883,7 +5901,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="358"/>
+      <c r="A51" s="357"/>
       <c r="B51" s="26"/>
       <c r="C51" s="247"/>
       <c r="D51" s="247"/>
@@ -5893,7 +5911,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="358"/>
+      <c r="A52" s="357"/>
       <c r="B52" s="26"/>
       <c r="C52" s="247"/>
       <c r="D52" s="247"/>
@@ -5903,7 +5921,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="358"/>
+      <c r="A53" s="357"/>
       <c r="B53" s="26"/>
       <c r="C53" s="247"/>
       <c r="D53" s="247"/>
@@ -5913,7 +5931,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="358"/>
+      <c r="A54" s="357"/>
       <c r="B54" s="26"/>
       <c r="C54" s="247"/>
       <c r="D54" s="247"/>
@@ -5923,7 +5941,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="358"/>
+      <c r="A55" s="357"/>
       <c r="B55" s="26"/>
       <c r="C55" s="247"/>
       <c r="D55" s="247"/>
@@ -5933,7 +5951,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="358"/>
+      <c r="A56" s="357"/>
       <c r="B56" s="26"/>
       <c r="C56" s="247"/>
       <c r="D56" s="247"/>
@@ -5943,7 +5961,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="358"/>
+      <c r="A57" s="357"/>
       <c r="B57" s="26"/>
       <c r="C57" s="247"/>
       <c r="D57" s="247"/>
@@ -5953,7 +5971,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="358"/>
+      <c r="A58" s="357"/>
       <c r="B58" s="26"/>
       <c r="C58" s="247"/>
       <c r="D58" s="247"/>
@@ -5963,7 +5981,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="358"/>
+      <c r="A59" s="357"/>
       <c r="B59" s="26"/>
       <c r="C59" s="247"/>
       <c r="D59" s="247"/>
@@ -5973,7 +5991,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="358"/>
+      <c r="A60" s="357"/>
       <c r="B60" s="26"/>
       <c r="C60" s="247"/>
       <c r="D60" s="247"/>
@@ -5983,7 +6001,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="358"/>
+      <c r="A61" s="357"/>
       <c r="B61" s="26"/>
       <c r="C61" s="247"/>
       <c r="D61" s="247"/>
@@ -5993,7 +6011,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="358"/>
+      <c r="A62" s="357"/>
       <c r="B62" s="26"/>
       <c r="C62" s="247"/>
       <c r="D62" s="247"/>
@@ -6003,7 +6021,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="358"/>
+      <c r="A63" s="357"/>
       <c r="B63" s="26"/>
       <c r="C63" s="247"/>
       <c r="D63" s="247"/>
@@ -6013,7 +6031,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="358"/>
+      <c r="A64" s="357"/>
       <c r="B64" s="26"/>
       <c r="C64" s="247"/>
       <c r="D64" s="247"/>
@@ -6023,7 +6041,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="358"/>
+      <c r="A65" s="357"/>
       <c r="B65" s="26"/>
       <c r="C65" s="247"/>
       <c r="D65" s="247"/>
@@ -6033,7 +6051,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="358"/>
+      <c r="A66" s="357"/>
       <c r="B66" s="26"/>
       <c r="C66" s="247"/>
       <c r="D66" s="247"/>
@@ -6043,7 +6061,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="358"/>
+      <c r="A67" s="357"/>
       <c r="B67" s="26"/>
       <c r="C67" s="247"/>
       <c r="D67" s="247"/>
@@ -6053,7 +6071,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="358"/>
+      <c r="A68" s="357"/>
       <c r="B68" s="26"/>
       <c r="C68" s="247"/>
       <c r="D68" s="247"/>
@@ -6063,7 +6081,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="358"/>
+      <c r="A69" s="357"/>
       <c r="B69" s="26"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
@@ -6073,7 +6091,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="358"/>
+      <c r="A70" s="357"/>
       <c r="B70" s="26"/>
       <c r="C70" s="247"/>
       <c r="D70" s="247"/>
@@ -6083,7 +6101,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="358"/>
+      <c r="A71" s="357"/>
       <c r="B71" s="26"/>
       <c r="C71" s="247"/>
       <c r="D71" s="247"/>
@@ -6093,7 +6111,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="358"/>
+      <c r="A72" s="357"/>
       <c r="B72" s="26"/>
       <c r="C72" s="247"/>
       <c r="D72" s="247"/>
@@ -6103,7 +6121,7 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="358"/>
+      <c r="A73" s="357"/>
       <c r="B73" s="26"/>
       <c r="C73" s="247"/>
       <c r="D73" s="247"/>
@@ -6113,7 +6131,7 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="358"/>
+      <c r="A74" s="357"/>
       <c r="B74" s="26"/>
       <c r="C74" s="247"/>
       <c r="D74" s="247"/>
@@ -6123,7 +6141,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="358"/>
+      <c r="A75" s="357"/>
       <c r="B75" s="26"/>
       <c r="C75" s="247"/>
       <c r="D75" s="247"/>
@@ -6133,7 +6151,7 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="358"/>
+      <c r="A76" s="357"/>
       <c r="B76" s="26"/>
       <c r="C76" s="247"/>
       <c r="D76" s="247"/>
@@ -6143,7 +6161,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="358"/>
+      <c r="A77" s="357"/>
       <c r="B77" s="26"/>
       <c r="C77" s="247"/>
       <c r="D77" s="247"/>
@@ -6153,7 +6171,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="358"/>
+      <c r="A78" s="357"/>
       <c r="B78" s="26"/>
       <c r="C78" s="247"/>
       <c r="D78" s="247"/>
@@ -6163,7 +6181,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="358"/>
+      <c r="A79" s="357"/>
       <c r="B79" s="26"/>
       <c r="C79" s="247"/>
       <c r="D79" s="247"/>
@@ -6173,7 +6191,7 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="358"/>
+      <c r="A80" s="357"/>
       <c r="B80" s="26"/>
       <c r="C80" s="247"/>
       <c r="D80" s="247"/>
@@ -6183,7 +6201,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="358"/>
+      <c r="A81" s="357"/>
       <c r="B81" s="26"/>
       <c r="C81" s="247"/>
       <c r="D81" s="247"/>
@@ -6193,7 +6211,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="358"/>
+      <c r="A82" s="357"/>
       <c r="B82" s="26"/>
       <c r="C82" s="247"/>
       <c r="D82" s="247"/>
@@ -6203,7 +6221,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="358"/>
+      <c r="A83" s="357"/>
       <c r="B83" s="267"/>
       <c r="C83" s="248">
         <f>SUM(C5:C72)</f>
@@ -6278,67 +6296,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="363" t="s">
+      <c r="A1" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="363"/>
-      <c r="C1" s="363"/>
-      <c r="D1" s="363"/>
-      <c r="E1" s="363"/>
-      <c r="F1" s="363"/>
-      <c r="G1" s="363"/>
-      <c r="H1" s="363"/>
-      <c r="I1" s="363"/>
-      <c r="J1" s="363"/>
-      <c r="K1" s="363"/>
-      <c r="L1" s="363"/>
-      <c r="M1" s="363"/>
-      <c r="N1" s="363"/>
-      <c r="O1" s="363"/>
-      <c r="P1" s="363"/>
-      <c r="Q1" s="363"/>
+      <c r="B1" s="360"/>
+      <c r="C1" s="360"/>
+      <c r="D1" s="360"/>
+      <c r="E1" s="360"/>
+      <c r="F1" s="360"/>
+      <c r="G1" s="360"/>
+      <c r="H1" s="360"/>
+      <c r="I1" s="360"/>
+      <c r="J1" s="360"/>
+      <c r="K1" s="360"/>
+      <c r="L1" s="360"/>
+      <c r="M1" s="360"/>
+      <c r="N1" s="360"/>
+      <c r="O1" s="360"/>
+      <c r="P1" s="360"/>
+      <c r="Q1" s="360"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="361" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="364"/>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="364"/>
-      <c r="K2" s="364"/>
-      <c r="L2" s="364"/>
-      <c r="M2" s="364"/>
-      <c r="N2" s="364"/>
-      <c r="O2" s="364"/>
-      <c r="P2" s="364"/>
-      <c r="Q2" s="364"/>
+      <c r="B2" s="361"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
+      <c r="E2" s="361"/>
+      <c r="F2" s="361"/>
+      <c r="G2" s="361"/>
+      <c r="H2" s="361"/>
+      <c r="I2" s="361"/>
+      <c r="J2" s="361"/>
+      <c r="K2" s="361"/>
+      <c r="L2" s="361"/>
+      <c r="M2" s="361"/>
+      <c r="N2" s="361"/>
+      <c r="O2" s="361"/>
+      <c r="P2" s="361"/>
+      <c r="Q2" s="361"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="362" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="366"/>
-      <c r="C3" s="366"/>
-      <c r="D3" s="366"/>
-      <c r="E3" s="366"/>
-      <c r="F3" s="366"/>
-      <c r="G3" s="366"/>
-      <c r="H3" s="366"/>
-      <c r="I3" s="366"/>
-      <c r="J3" s="366"/>
-      <c r="K3" s="366"/>
-      <c r="L3" s="366"/>
-      <c r="M3" s="366"/>
-      <c r="N3" s="366"/>
-      <c r="O3" s="366"/>
-      <c r="P3" s="366"/>
-      <c r="Q3" s="367"/>
+      <c r="B3" s="363"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="363"/>
+      <c r="F3" s="363"/>
+      <c r="G3" s="363"/>
+      <c r="H3" s="363"/>
+      <c r="I3" s="363"/>
+      <c r="J3" s="363"/>
+      <c r="K3" s="363"/>
+      <c r="L3" s="363"/>
+      <c r="M3" s="363"/>
+      <c r="N3" s="363"/>
+      <c r="O3" s="363"/>
+      <c r="P3" s="363"/>
+      <c r="Q3" s="364"/>
       <c r="S3" s="50"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6347,52 +6365,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="368" t="s">
+      <c r="A4" s="365" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="370" t="s">
+      <c r="B4" s="367" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="359" t="s">
+      <c r="C4" s="369" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="359" t="s">
+      <c r="D4" s="369" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="359" t="s">
+      <c r="E4" s="369" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="359" t="s">
+      <c r="F4" s="369" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="359" t="s">
+      <c r="G4" s="369" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="359" t="s">
+      <c r="H4" s="369" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="359" t="s">
+      <c r="I4" s="369" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="359" t="s">
+      <c r="J4" s="369" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="359" t="s">
+      <c r="K4" s="369" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="359" t="s">
+      <c r="L4" s="369" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="359" t="s">
+      <c r="M4" s="369" t="s">
         <v>204</v>
       </c>
-      <c r="N4" s="359" t="s">
+      <c r="N4" s="369" t="s">
         <v>119</v>
       </c>
-      <c r="O4" s="361" t="s">
+      <c r="O4" s="358" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="372" t="s">
+      <c r="P4" s="371" t="s">
         <v>54</v>
       </c>
       <c r="Q4" s="125" t="s">
@@ -6405,22 +6423,22 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="369"/>
-      <c r="B5" s="371"/>
-      <c r="C5" s="360"/>
-      <c r="D5" s="360"/>
-      <c r="E5" s="360"/>
-      <c r="F5" s="360"/>
-      <c r="G5" s="360"/>
-      <c r="H5" s="360"/>
-      <c r="I5" s="360"/>
-      <c r="J5" s="360"/>
-      <c r="K5" s="360"/>
-      <c r="L5" s="360"/>
-      <c r="M5" s="360"/>
-      <c r="N5" s="360"/>
-      <c r="O5" s="362"/>
-      <c r="P5" s="373"/>
+      <c r="A5" s="366"/>
+      <c r="B5" s="368"/>
+      <c r="C5" s="370"/>
+      <c r="D5" s="370"/>
+      <c r="E5" s="370"/>
+      <c r="F5" s="370"/>
+      <c r="G5" s="370"/>
+      <c r="H5" s="370"/>
+      <c r="I5" s="370"/>
+      <c r="J5" s="370"/>
+      <c r="K5" s="370"/>
+      <c r="L5" s="370"/>
+      <c r="M5" s="370"/>
+      <c r="N5" s="370"/>
+      <c r="O5" s="359"/>
+      <c r="P5" s="372"/>
       <c r="Q5" s="126" t="s">
         <v>38</v>
       </c>
@@ -9509,8 +9527,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9528,6 +9544,8 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9541,8 +9559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9569,14 +9587,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="377" t="s">
+      <c r="A1" s="376" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="378"/>
-      <c r="C1" s="378"/>
-      <c r="D1" s="378"/>
-      <c r="E1" s="378"/>
-      <c r="F1" s="379"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="378"/>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
       <c r="I1" s="142"/>
@@ -9670,14 +9688,14 @@
       <c r="CS1" s="137"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="380" t="s">
+      <c r="A2" s="379" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="382"/>
+      <c r="B2" s="380"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="380"/>
+      <c r="F2" s="381"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="142"/>
@@ -9771,14 +9789,14 @@
       <c r="CS2" s="137"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="383" t="s">
+      <c r="A3" s="382" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="384"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="384"/>
-      <c r="E3" s="384"/>
-      <c r="F3" s="385"/>
+      <c r="B3" s="383"/>
+      <c r="C3" s="383"/>
+      <c r="D3" s="383"/>
+      <c r="E3" s="383"/>
+      <c r="F3" s="384"/>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="142"/>
@@ -13185,12 +13203,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="132"/>
-      <c r="B35" s="376" t="s">
+      <c r="B35" s="375" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="376"/>
-      <c r="D35" s="376"/>
-      <c r="E35" s="376"/>
+      <c r="C35" s="375"/>
+      <c r="D35" s="375"/>
+      <c r="E35" s="375"/>
       <c r="F35" s="133"/>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -13302,7 +13320,7 @@
       </c>
       <c r="F36" s="182">
         <f>F33-D119+L121</f>
-        <v>0</v>
+        <v>4860</v>
       </c>
       <c r="G36" s="138"/>
       <c r="H36" s="138"/>
@@ -14354,19 +14372,19 @@
       <c r="CS45" s="137"/>
     </row>
     <row r="46" spans="1:97">
-      <c r="A46" s="290" t="s">
+      <c r="A46" s="289" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="291" t="s">
+      <c r="B46" s="290" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="292">
+      <c r="C46" s="291">
         <v>1718911905</v>
       </c>
-      <c r="D46" s="303">
+      <c r="D46" s="302">
         <v>443590</v>
       </c>
-      <c r="E46" s="293" t="s">
+      <c r="E46" s="292" t="s">
         <v>246</v>
       </c>
       <c r="F46" s="130"/>
@@ -14476,19 +14494,19 @@
       <c r="CS46" s="137"/>
     </row>
     <row r="47" spans="1:97">
-      <c r="A47" s="290" t="s">
+      <c r="A47" s="289" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="294" t="s">
+      <c r="B47" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="295">
+      <c r="C47" s="294">
         <v>1765002244</v>
       </c>
-      <c r="D47" s="296">
+      <c r="D47" s="295">
         <v>637720</v>
       </c>
-      <c r="E47" s="297" t="s">
+      <c r="E47" s="296" t="s">
         <v>241</v>
       </c>
       <c r="F47" s="131"/>
@@ -14596,19 +14614,19 @@
       <c r="CS47" s="137"/>
     </row>
     <row r="48" spans="1:97">
-      <c r="A48" s="290" t="s">
+      <c r="A48" s="289" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="298" t="s">
+      <c r="B48" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="295">
+      <c r="C48" s="294">
         <v>1716697790</v>
       </c>
-      <c r="D48" s="303">
+      <c r="D48" s="302">
         <v>200000</v>
       </c>
-      <c r="E48" s="299" t="s">
+      <c r="E48" s="298" t="s">
         <v>234</v>
       </c>
       <c r="F48" s="131"/>
@@ -14716,19 +14734,19 @@
       <c r="CS48" s="137"/>
     </row>
     <row r="49" spans="1:97">
-      <c r="A49" s="290" t="s">
+      <c r="A49" s="289" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="300" t="s">
+      <c r="B49" s="299" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="295">
+      <c r="C49" s="294">
         <v>1743942020</v>
       </c>
-      <c r="D49" s="303">
+      <c r="D49" s="302">
         <v>391400</v>
       </c>
-      <c r="E49" s="297" t="s">
+      <c r="E49" s="296" t="s">
         <v>241</v>
       </c>
       <c r="F49" s="131"/>
@@ -14838,19 +14856,19 @@
       <c r="CS49" s="137"/>
     </row>
     <row r="50" spans="1:97">
-      <c r="A50" s="290" t="s">
+      <c r="A50" s="289" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="298" t="s">
+      <c r="B50" s="297" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="295">
+      <c r="C50" s="294">
         <v>1723246584</v>
       </c>
-      <c r="D50" s="296">
+      <c r="D50" s="295">
         <v>85960</v>
       </c>
-      <c r="E50" s="299" t="s">
+      <c r="E50" s="298" t="s">
         <v>193</v>
       </c>
       <c r="F50" s="131"/>
@@ -14960,19 +14978,19 @@
       <c r="CS50" s="137"/>
     </row>
     <row r="51" spans="1:97">
-      <c r="A51" s="290" t="s">
+      <c r="A51" s="289" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="294" t="s">
+      <c r="B51" s="293" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="295">
+      <c r="C51" s="294">
         <v>1739791780</v>
       </c>
-      <c r="D51" s="303">
+      <c r="D51" s="302">
         <v>23000</v>
       </c>
-      <c r="E51" s="301" t="s">
+      <c r="E51" s="300" t="s">
         <v>241</v>
       </c>
       <c r="F51" s="131"/>
@@ -15082,19 +15100,19 @@
       <c r="CS51" s="137"/>
     </row>
     <row r="52" spans="1:97">
-      <c r="A52" s="290" t="s">
+      <c r="A52" s="289" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="298" t="s">
+      <c r="B52" s="297" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="295">
+      <c r="C52" s="294">
         <v>1725821212</v>
       </c>
-      <c r="D52" s="296">
-        <v>50760</v>
-      </c>
-      <c r="E52" s="299" t="s">
+      <c r="D52" s="295">
+        <v>45900</v>
+      </c>
+      <c r="E52" s="298" t="s">
         <v>246</v>
       </c>
       <c r="F52" s="131"/>
@@ -15204,19 +15222,19 @@
       <c r="CS52" s="137"/>
     </row>
     <row r="53" spans="1:97">
-      <c r="A53" s="290" t="s">
+      <c r="A53" s="289" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="298" t="s">
+      <c r="B53" s="297" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="295">
+      <c r="C53" s="294">
         <v>1749334499</v>
       </c>
-      <c r="D53" s="303">
+      <c r="D53" s="302">
         <v>78330</v>
       </c>
-      <c r="E53" s="297" t="s">
+      <c r="E53" s="296" t="s">
         <v>246</v>
       </c>
       <c r="F53" s="131"/>
@@ -15326,17 +15344,17 @@
       <c r="CS53" s="137"/>
     </row>
     <row r="54" spans="1:97">
-      <c r="A54" s="290" t="s">
+      <c r="A54" s="289" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="294" t="s">
+      <c r="B54" s="293" t="s">
         <v>174</v>
       </c>
-      <c r="C54" s="295"/>
-      <c r="D54" s="303">
+      <c r="C54" s="294"/>
+      <c r="D54" s="302">
         <v>214390</v>
       </c>
-      <c r="E54" s="301" t="s">
+      <c r="E54" s="300" t="s">
         <v>246</v>
       </c>
       <c r="F54" s="131"/>
@@ -15446,17 +15464,17 @@
       <c r="CS54" s="137"/>
     </row>
     <row r="55" spans="1:97">
-      <c r="A55" s="290" t="s">
+      <c r="A55" s="289" t="s">
         <v>211</v>
       </c>
-      <c r="B55" s="302" t="s">
+      <c r="B55" s="301" t="s">
         <v>188</v>
       </c>
-      <c r="C55" s="295"/>
-      <c r="D55" s="303">
+      <c r="C55" s="294"/>
+      <c r="D55" s="302">
         <v>15000</v>
       </c>
-      <c r="E55" s="299" t="s">
+      <c r="E55" s="298" t="s">
         <v>241</v>
       </c>
       <c r="F55" s="131"/>
@@ -15568,17 +15586,17 @@
       <c r="CS55" s="137"/>
     </row>
     <row r="56" spans="1:97">
-      <c r="A56" s="290" t="s">
+      <c r="A56" s="289" t="s">
         <v>211</v>
       </c>
-      <c r="B56" s="300" t="s">
+      <c r="B56" s="299" t="s">
         <v>248</v>
       </c>
-      <c r="C56" s="295"/>
-      <c r="D56" s="296">
+      <c r="C56" s="294"/>
+      <c r="D56" s="295">
         <v>41950</v>
       </c>
-      <c r="E56" s="297" t="s">
+      <c r="E56" s="296" t="s">
         <v>246</v>
       </c>
       <c r="F56" s="131"/>
@@ -15688,11 +15706,11 @@
       <c r="CS56" s="137"/>
     </row>
     <row r="57" spans="1:97">
-      <c r="A57" s="290"/>
-      <c r="B57" s="298"/>
-      <c r="C57" s="295"/>
-      <c r="D57" s="296"/>
-      <c r="E57" s="297"/>
+      <c r="A57" s="289"/>
+      <c r="B57" s="297"/>
+      <c r="C57" s="294"/>
+      <c r="D57" s="295"/>
+      <c r="E57" s="296"/>
       <c r="F57" s="131"/>
       <c r="G57" s="137"/>
       <c r="H57" s="186" t="s">
@@ -15812,7 +15830,7 @@
       <c r="D58" s="287">
         <v>135210</v>
       </c>
-      <c r="E58" s="305" t="s">
+      <c r="E58" s="304" t="s">
         <v>237</v>
       </c>
       <c r="F58" s="131"/>
@@ -15922,17 +15940,17 @@
       <c r="CS58" s="137"/>
     </row>
     <row r="59" spans="1:97">
-      <c r="A59" s="284" t="s">
+      <c r="A59" s="402" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="289" t="s">
+      <c r="B59" s="407" t="s">
         <v>228</v>
       </c>
-      <c r="C59" s="286"/>
-      <c r="D59" s="287">
+      <c r="C59" s="404"/>
+      <c r="D59" s="405">
         <v>6000</v>
       </c>
-      <c r="E59" s="305" t="s">
+      <c r="E59" s="408" t="s">
         <v>227</v>
       </c>
       <c r="F59" s="131"/>
@@ -16043,7 +16061,7 @@
       <c r="A60" s="284" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="289" t="s">
+      <c r="B60" s="288" t="s">
         <v>66</v>
       </c>
       <c r="C60" s="286" t="s">
@@ -16052,7 +16070,7 @@
       <c r="D60" s="287">
         <v>10500</v>
       </c>
-      <c r="E60" s="304" t="s">
+      <c r="E60" s="303" t="s">
         <v>158</v>
       </c>
       <c r="F60" s="131"/>
@@ -16172,7 +16190,7 @@
       <c r="D61" s="287">
         <v>17400</v>
       </c>
-      <c r="E61" s="305" t="s">
+      <c r="E61" s="304" t="s">
         <v>121</v>
       </c>
       <c r="F61" s="131"/>
@@ -16284,7 +16302,7 @@
       <c r="D62" s="287">
         <v>21320</v>
       </c>
-      <c r="E62" s="305" t="s">
+      <c r="E62" s="304" t="s">
         <v>146</v>
       </c>
       <c r="F62" s="130"/>
@@ -16384,17 +16402,17 @@
       <c r="CS62" s="137"/>
     </row>
     <row r="63" spans="1:97">
-      <c r="A63" s="284" t="s">
+      <c r="A63" s="402" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="285" t="s">
+      <c r="B63" s="403" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="286"/>
-      <c r="D63" s="287">
+      <c r="C63" s="404"/>
+      <c r="D63" s="405">
         <v>1080</v>
       </c>
-      <c r="E63" s="288" t="s">
+      <c r="E63" s="406" t="s">
         <v>168</v>
       </c>
       <c r="F63" s="131"/>
@@ -16504,17 +16522,17 @@
       <c r="CS63" s="137"/>
     </row>
     <row r="64" spans="1:97">
-      <c r="A64" s="284" t="s">
+      <c r="A64" s="402" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="285" t="s">
+      <c r="B64" s="403" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="286"/>
-      <c r="D64" s="287">
+      <c r="C64" s="404"/>
+      <c r="D64" s="405">
         <v>30000</v>
       </c>
-      <c r="E64" s="288" t="s">
+      <c r="E64" s="406" t="s">
         <v>207</v>
       </c>
       <c r="F64" s="131"/>
@@ -16634,7 +16652,7 @@
       <c r="D65" s="287">
         <v>26270</v>
       </c>
-      <c r="E65" s="305" t="s">
+      <c r="E65" s="304" t="s">
         <v>219</v>
       </c>
       <c r="F65" s="131"/>
@@ -16747,7 +16765,7 @@
       <c r="A66" s="284" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="289" t="s">
+      <c r="B66" s="288" t="s">
         <v>114</v>
       </c>
       <c r="C66" s="286">
@@ -16756,7 +16774,7 @@
       <c r="D66" s="287">
         <v>12000</v>
       </c>
-      <c r="E66" s="305" t="s">
+      <c r="E66" s="304" t="s">
         <v>232</v>
       </c>
       <c r="F66" s="131"/>
@@ -16869,14 +16887,14 @@
       <c r="A67" s="284" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="289" t="s">
+      <c r="B67" s="288" t="s">
         <v>223</v>
       </c>
       <c r="C67" s="286"/>
       <c r="D67" s="287">
         <v>300</v>
       </c>
-      <c r="E67" s="305" t="s">
+      <c r="E67" s="304" t="s">
         <v>236</v>
       </c>
       <c r="F67" s="131"/>
@@ -16989,7 +17007,7 @@
       <c r="A68" s="284" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="306" t="s">
+      <c r="B68" s="305" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="286" t="s">
@@ -16998,7 +17016,7 @@
       <c r="D68" s="287">
         <v>5000</v>
       </c>
-      <c r="E68" s="304" t="s">
+      <c r="E68" s="303" t="s">
         <v>139</v>
       </c>
       <c r="F68" s="131"/>
@@ -17108,17 +17126,17 @@
       <c r="CS68" s="137"/>
     </row>
     <row r="69" spans="1:97">
-      <c r="A69" s="284" t="s">
-        <v>206</v>
-      </c>
-      <c r="B69" s="289" t="s">
+      <c r="A69" s="402" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="407" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="286"/>
-      <c r="D69" s="287">
+      <c r="C69" s="404"/>
+      <c r="D69" s="405">
         <v>25000</v>
       </c>
-      <c r="E69" s="305" t="s">
+      <c r="E69" s="408" t="s">
         <v>207</v>
       </c>
       <c r="F69" s="156"/>
@@ -17238,7 +17256,7 @@
       <c r="D70" s="287">
         <v>60000</v>
       </c>
-      <c r="E70" s="304" t="s">
+      <c r="E70" s="303" t="s">
         <v>236</v>
       </c>
       <c r="F70" s="131"/>
@@ -17349,10 +17367,10 @@
     </row>
     <row r="71" spans="1:97">
       <c r="A71" s="284"/>
-      <c r="B71" s="289"/>
+      <c r="B71" s="288"/>
       <c r="C71" s="286"/>
       <c r="D71" s="287"/>
-      <c r="E71" s="304"/>
+      <c r="E71" s="303"/>
       <c r="F71" s="133"/>
       <c r="G71" s="137"/>
       <c r="H71" s="189" t="s">
@@ -17459,10 +17477,10 @@
     </row>
     <row r="72" spans="1:97">
       <c r="A72" s="284"/>
-      <c r="B72" s="289"/>
+      <c r="B72" s="288"/>
       <c r="C72" s="286"/>
       <c r="D72" s="287"/>
-      <c r="E72" s="305"/>
+      <c r="E72" s="304"/>
       <c r="F72" s="133"/>
       <c r="G72" s="137"/>
       <c r="H72" s="174" t="s">
@@ -17569,10 +17587,10 @@
     </row>
     <row r="73" spans="1:97">
       <c r="A73" s="284"/>
-      <c r="B73" s="289"/>
+      <c r="B73" s="288"/>
       <c r="C73" s="286"/>
       <c r="D73" s="287"/>
-      <c r="E73" s="305"/>
+      <c r="E73" s="304"/>
       <c r="F73" s="133"/>
       <c r="G73" s="137"/>
       <c r="H73" s="186"/>
@@ -17670,19 +17688,19 @@
       <c r="CS73" s="137"/>
     </row>
     <row r="74" spans="1:97">
-      <c r="A74" s="307" t="s">
+      <c r="A74" s="306" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="308" t="s">
+      <c r="B74" s="307" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="309">
+      <c r="C74" s="308">
         <v>1750481144</v>
       </c>
-      <c r="D74" s="310">
+      <c r="D74" s="309">
         <v>24160</v>
       </c>
-      <c r="E74" s="313" t="s">
+      <c r="E74" s="312" t="s">
         <v>179</v>
       </c>
       <c r="F74" s="133"/>
@@ -17782,17 +17800,17 @@
       <c r="CS74" s="137"/>
     </row>
     <row r="75" spans="1:97">
-      <c r="A75" s="307" t="s">
+      <c r="A75" s="306" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="308" t="s">
+      <c r="B75" s="307" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="314"/>
-      <c r="D75" s="310">
+      <c r="C75" s="313"/>
+      <c r="D75" s="309">
         <v>16000</v>
       </c>
-      <c r="E75" s="311" t="s">
+      <c r="E75" s="310" t="s">
         <v>221</v>
       </c>
       <c r="F75" s="131"/>
@@ -17892,17 +17910,17 @@
       <c r="CS75" s="137"/>
     </row>
     <row r="76" spans="1:97">
-      <c r="A76" s="307" t="s">
+      <c r="A76" s="306" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="308" t="s">
+      <c r="B76" s="307" t="s">
         <v>178</v>
       </c>
-      <c r="C76" s="309"/>
-      <c r="D76" s="310">
+      <c r="C76" s="308"/>
+      <c r="D76" s="309">
         <v>6310</v>
       </c>
-      <c r="E76" s="312" t="s">
+      <c r="E76" s="311" t="s">
         <v>236</v>
       </c>
       <c r="F76" s="131"/>
@@ -18012,17 +18030,17 @@
       <c r="CS76" s="137"/>
     </row>
     <row r="77" spans="1:97">
-      <c r="A77" s="307" t="s">
+      <c r="A77" s="306" t="s">
         <v>224</v>
       </c>
-      <c r="B77" s="308" t="s">
+      <c r="B77" s="307" t="s">
         <v>225</v>
       </c>
-      <c r="C77" s="309"/>
-      <c r="D77" s="310">
+      <c r="C77" s="308"/>
+      <c r="D77" s="309">
         <v>25000</v>
       </c>
-      <c r="E77" s="311" t="s">
+      <c r="E77" s="310" t="s">
         <v>232</v>
       </c>
       <c r="F77" s="137"/>
@@ -18130,17 +18148,17 @@
       <c r="CS77" s="137"/>
     </row>
     <row r="78" spans="1:97">
-      <c r="A78" s="307" t="s">
+      <c r="A78" s="306" t="s">
         <v>224</v>
       </c>
-      <c r="B78" s="308" t="s">
+      <c r="B78" s="307" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="309"/>
-      <c r="D78" s="310">
+      <c r="C78" s="308"/>
+      <c r="D78" s="309">
         <v>10000</v>
       </c>
-      <c r="E78" s="313" t="s">
+      <c r="E78" s="312" t="s">
         <v>229</v>
       </c>
       <c r="F78" s="266"/>
@@ -18248,17 +18266,17 @@
       <c r="CS78" s="137"/>
     </row>
     <row r="79" spans="1:97">
-      <c r="A79" s="307" t="s">
+      <c r="A79" s="306" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="308" t="s">
+      <c r="B79" s="307" t="s">
         <v>195</v>
       </c>
-      <c r="C79" s="314"/>
-      <c r="D79" s="310">
+      <c r="C79" s="313"/>
+      <c r="D79" s="309">
         <v>24000</v>
       </c>
-      <c r="E79" s="313" t="s">
+      <c r="E79" s="312" t="s">
         <v>236</v>
       </c>
       <c r="F79" s="131"/>
@@ -18368,17 +18386,17 @@
       <c r="CS79" s="137"/>
     </row>
     <row r="80" spans="1:97">
-      <c r="A80" s="307" t="s">
+      <c r="A80" s="306" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="316" t="s">
+      <c r="B80" s="315" t="s">
         <v>201</v>
       </c>
-      <c r="C80" s="309"/>
-      <c r="D80" s="310">
+      <c r="C80" s="308"/>
+      <c r="D80" s="309">
         <v>10000</v>
       </c>
-      <c r="E80" s="312" t="s">
+      <c r="E80" s="311" t="s">
         <v>236</v>
       </c>
       <c r="F80" s="137"/>
@@ -18486,19 +18504,19 @@
       <c r="CS80" s="137"/>
     </row>
     <row r="81" spans="1:97">
-      <c r="A81" s="307" t="s">
+      <c r="A81" s="306" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="308" t="s">
+      <c r="B81" s="307" t="s">
         <v>105</v>
       </c>
-      <c r="C81" s="309">
+      <c r="C81" s="308">
         <v>1811710431</v>
       </c>
-      <c r="D81" s="310">
+      <c r="D81" s="309">
         <v>1960</v>
       </c>
-      <c r="E81" s="312" t="s">
+      <c r="E81" s="311" t="s">
         <v>145</v>
       </c>
       <c r="F81" s="131"/>
@@ -18606,17 +18624,17 @@
       <c r="CS81" s="137"/>
     </row>
     <row r="82" spans="1:97">
-      <c r="A82" s="307" t="s">
+      <c r="A82" s="306" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="316" t="s">
+      <c r="B82" s="315" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="309"/>
-      <c r="D82" s="310">
+      <c r="C82" s="308"/>
+      <c r="D82" s="309">
         <v>18080</v>
       </c>
-      <c r="E82" s="312" t="s">
+      <c r="E82" s="311" t="s">
         <v>237</v>
       </c>
       <c r="F82" s="131"/>
@@ -18726,17 +18744,17 @@
       <c r="CS82" s="137"/>
     </row>
     <row r="83" spans="1:97">
-      <c r="A83" s="307" t="s">
+      <c r="A83" s="306" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="308" t="s">
+      <c r="B83" s="307" t="s">
         <v>124</v>
       </c>
-      <c r="C83" s="309"/>
-      <c r="D83" s="310">
+      <c r="C83" s="308"/>
+      <c r="D83" s="309">
         <v>15000</v>
       </c>
-      <c r="E83" s="312" t="s">
+      <c r="E83" s="311" t="s">
         <v>207</v>
       </c>
       <c r="F83" s="131"/>
@@ -18846,19 +18864,19 @@
       <c r="CS83" s="137"/>
     </row>
     <row r="84" spans="1:97">
-      <c r="A84" s="307" t="s">
+      <c r="A84" s="306" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="308" t="s">
+      <c r="B84" s="307" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="309">
+      <c r="C84" s="308">
         <v>1761236031</v>
       </c>
-      <c r="D84" s="310">
+      <c r="D84" s="309">
         <v>7000</v>
       </c>
-      <c r="E84" s="313" t="s">
+      <c r="E84" s="312" t="s">
         <v>97</v>
       </c>
       <c r="F84" s="263"/>
@@ -18966,19 +18984,19 @@
       <c r="CS84" s="137"/>
     </row>
     <row r="85" spans="1:97">
-      <c r="A85" s="307" t="s">
+      <c r="A85" s="306" t="s">
         <v>75</v>
       </c>
-      <c r="B85" s="308" t="s">
+      <c r="B85" s="307" t="s">
         <v>106</v>
       </c>
-      <c r="C85" s="309">
+      <c r="C85" s="308">
         <v>1309083520</v>
       </c>
-      <c r="D85" s="310">
+      <c r="D85" s="309">
         <v>280000</v>
       </c>
-      <c r="E85" s="313" t="s">
+      <c r="E85" s="312" t="s">
         <v>246</v>
       </c>
       <c r="F85" s="131"/>
@@ -19086,17 +19104,17 @@
       <c r="CS85" s="137"/>
     </row>
     <row r="86" spans="1:97">
-      <c r="A86" s="307" t="s">
+      <c r="A86" s="306" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="308" t="s">
+      <c r="B86" s="307" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="309"/>
-      <c r="D86" s="310">
+      <c r="C86" s="308"/>
+      <c r="D86" s="309">
         <v>20000</v>
       </c>
-      <c r="E86" s="313" t="s">
+      <c r="E86" s="312" t="s">
         <v>151</v>
       </c>
       <c r="F86" s="131"/>
@@ -19204,17 +19222,17 @@
       <c r="CS86" s="137"/>
     </row>
     <row r="87" spans="1:97">
-      <c r="A87" s="307" t="s">
+      <c r="A87" s="306" t="s">
         <v>75</v>
       </c>
-      <c r="B87" s="308" t="s">
+      <c r="B87" s="307" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="309"/>
-      <c r="D87" s="310">
+      <c r="C87" s="308"/>
+      <c r="D87" s="309">
         <v>18540</v>
       </c>
-      <c r="E87" s="311" t="s">
+      <c r="E87" s="310" t="s">
         <v>197</v>
       </c>
       <c r="F87" s="131"/>
@@ -19322,17 +19340,17 @@
       <c r="CS87" s="137"/>
     </row>
     <row r="88" spans="1:97">
-      <c r="A88" s="307" t="s">
+      <c r="A88" s="306" t="s">
         <v>75</v>
       </c>
-      <c r="B88" s="308" t="s">
+      <c r="B88" s="307" t="s">
         <v>113</v>
       </c>
-      <c r="C88" s="309"/>
-      <c r="D88" s="310">
+      <c r="C88" s="308"/>
+      <c r="D88" s="309">
         <v>15010</v>
       </c>
-      <c r="E88" s="313" t="s">
+      <c r="E88" s="312" t="s">
         <v>236</v>
       </c>
       <c r="F88" s="266"/>
@@ -19442,17 +19460,17 @@
       <c r="CS88" s="137"/>
     </row>
     <row r="89" spans="1:97">
-      <c r="A89" s="307" t="s">
+      <c r="A89" s="306" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="308" t="s">
+      <c r="B89" s="307" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="309"/>
-      <c r="D89" s="310">
+      <c r="C89" s="308"/>
+      <c r="D89" s="309">
         <v>32610</v>
       </c>
-      <c r="E89" s="312" t="s">
+      <c r="E89" s="311" t="s">
         <v>207</v>
       </c>
       <c r="F89" s="131"/>
@@ -19560,17 +19578,17 @@
       <c r="CS89" s="137"/>
     </row>
     <row r="90" spans="1:97">
-      <c r="A90" s="351" t="s">
+      <c r="A90" s="350" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="315" t="s">
+      <c r="B90" s="314" t="s">
         <v>141</v>
       </c>
-      <c r="C90" s="309"/>
-      <c r="D90" s="310">
+      <c r="C90" s="308"/>
+      <c r="D90" s="309">
         <v>7000</v>
       </c>
-      <c r="E90" s="313" t="s">
+      <c r="E90" s="312" t="s">
         <v>237</v>
       </c>
       <c r="F90" s="131"/>
@@ -19678,19 +19696,19 @@
       <c r="CS90" s="137"/>
     </row>
     <row r="91" spans="1:97">
-      <c r="A91" s="318" t="s">
+      <c r="A91" s="317" t="s">
         <v>99</v>
       </c>
-      <c r="B91" s="308" t="s">
+      <c r="B91" s="307" t="s">
         <v>100</v>
       </c>
-      <c r="C91" s="309">
+      <c r="C91" s="308">
         <v>1789726772</v>
       </c>
-      <c r="D91" s="310">
+      <c r="D91" s="309">
         <v>57000</v>
       </c>
-      <c r="E91" s="313" t="s">
+      <c r="E91" s="312" t="s">
         <v>192</v>
       </c>
       <c r="F91" s="137"/>
@@ -19800,17 +19818,17 @@
       <c r="CS91" s="137"/>
     </row>
     <row r="92" spans="1:97">
-      <c r="A92" s="307" t="s">
+      <c r="A92" s="306" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="317" t="s">
+      <c r="B92" s="316" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="309"/>
-      <c r="D92" s="310">
+      <c r="C92" s="308"/>
+      <c r="D92" s="309">
         <v>37000</v>
       </c>
-      <c r="E92" s="313" t="s">
+      <c r="E92" s="312" t="s">
         <v>237</v>
       </c>
       <c r="F92" s="266"/>
@@ -19918,17 +19936,17 @@
       <c r="CS92" s="137"/>
     </row>
     <row r="93" spans="1:97">
-      <c r="A93" s="307" t="s">
+      <c r="A93" s="306" t="s">
         <v>122</v>
       </c>
-      <c r="B93" s="317" t="s">
+      <c r="B93" s="316" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="309"/>
-      <c r="D93" s="310">
+      <c r="C93" s="308"/>
+      <c r="D93" s="309">
         <v>50500</v>
       </c>
-      <c r="E93" s="313" t="s">
+      <c r="E93" s="312" t="s">
         <v>246</v>
       </c>
       <c r="F93" s="131"/>
@@ -20036,19 +20054,19 @@
       <c r="CS93" s="137"/>
     </row>
     <row r="94" spans="1:97">
-      <c r="A94" s="307" t="s">
+      <c r="A94" s="306" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="308" t="s">
+      <c r="B94" s="307" t="s">
         <v>109</v>
       </c>
-      <c r="C94" s="309">
+      <c r="C94" s="308">
         <v>1729190349</v>
       </c>
-      <c r="D94" s="310">
+      <c r="D94" s="309">
         <v>54000</v>
       </c>
-      <c r="E94" s="313" t="s">
+      <c r="E94" s="312" t="s">
         <v>229</v>
       </c>
       <c r="F94" s="266"/>
@@ -20158,17 +20176,17 @@
       <c r="CS94" s="137"/>
     </row>
     <row r="95" spans="1:97">
-      <c r="A95" s="307" t="s">
+      <c r="A95" s="306" t="s">
         <v>242</v>
       </c>
-      <c r="B95" s="308" t="s">
+      <c r="B95" s="307" t="s">
         <v>243</v>
       </c>
-      <c r="C95" s="309"/>
-      <c r="D95" s="310">
+      <c r="C95" s="308"/>
+      <c r="D95" s="309">
         <v>7800</v>
       </c>
-      <c r="E95" s="313" t="s">
+      <c r="E95" s="312" t="s">
         <v>241</v>
       </c>
       <c r="F95" s="137"/>
@@ -20278,17 +20296,17 @@
       <c r="CS95" s="137"/>
     </row>
     <row r="96" spans="1:97">
-      <c r="A96" s="307" t="s">
+      <c r="A96" s="306" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="308" t="s">
+      <c r="B96" s="307" t="s">
         <v>188</v>
       </c>
-      <c r="C96" s="309"/>
-      <c r="D96" s="310">
+      <c r="C96" s="308"/>
+      <c r="D96" s="309">
         <v>10000</v>
       </c>
-      <c r="E96" s="312" t="s">
+      <c r="E96" s="311" t="s">
         <v>232</v>
       </c>
       <c r="F96" s="137"/>
@@ -20398,17 +20416,17 @@
       <c r="CS96" s="137"/>
     </row>
     <row r="97" spans="1:97">
-      <c r="A97" s="307" t="s">
+      <c r="A97" s="306" t="s">
         <v>160</v>
       </c>
-      <c r="B97" s="308" t="s">
+      <c r="B97" s="307" t="s">
         <v>238</v>
       </c>
-      <c r="C97" s="309"/>
-      <c r="D97" s="310">
+      <c r="C97" s="308"/>
+      <c r="D97" s="309">
         <v>1500</v>
       </c>
-      <c r="E97" s="312" t="s">
+      <c r="E97" s="311" t="s">
         <v>237</v>
       </c>
       <c r="F97" s="137"/>
@@ -20508,17 +20526,17 @@
       <c r="CS97" s="137"/>
     </row>
     <row r="98" spans="1:97">
-      <c r="A98" s="307" t="s">
+      <c r="A98" s="306" t="s">
         <v>239</v>
       </c>
-      <c r="B98" s="308" t="s">
+      <c r="B98" s="307" t="s">
         <v>240</v>
       </c>
-      <c r="C98" s="309"/>
-      <c r="D98" s="310">
+      <c r="C98" s="308"/>
+      <c r="D98" s="309">
         <v>3000</v>
       </c>
-      <c r="E98" s="313" t="s">
+      <c r="E98" s="312" t="s">
         <v>237</v>
       </c>
       <c r="F98" s="137"/>
@@ -20618,17 +20636,17 @@
       <c r="CS98" s="137"/>
     </row>
     <row r="99" spans="1:97">
-      <c r="A99" s="307" t="s">
+      <c r="A99" s="306" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="308" t="s">
+      <c r="B99" s="307" t="s">
         <v>245</v>
       </c>
-      <c r="C99" s="309"/>
-      <c r="D99" s="310">
+      <c r="C99" s="308"/>
+      <c r="D99" s="309">
         <v>7000</v>
       </c>
-      <c r="E99" s="313" t="s">
+      <c r="E99" s="312" t="s">
         <v>241</v>
       </c>
       <c r="F99" s="137"/>
@@ -20728,11 +20746,11 @@
       <c r="CS99" s="137"/>
     </row>
     <row r="100" spans="1:97">
-      <c r="A100" s="307"/>
-      <c r="B100" s="308"/>
-      <c r="C100" s="309"/>
-      <c r="D100" s="310"/>
-      <c r="E100" s="312"/>
+      <c r="A100" s="306"/>
+      <c r="B100" s="307"/>
+      <c r="C100" s="308"/>
+      <c r="D100" s="309"/>
+      <c r="E100" s="311"/>
       <c r="F100" s="137"/>
       <c r="G100" s="137"/>
       <c r="H100" s="186"/>
@@ -20830,11 +20848,11 @@
       <c r="CS100" s="137"/>
     </row>
     <row r="101" spans="1:97">
-      <c r="A101" s="307"/>
-      <c r="B101" s="308"/>
-      <c r="C101" s="309"/>
-      <c r="D101" s="310"/>
-      <c r="E101" s="312"/>
+      <c r="A101" s="306"/>
+      <c r="B101" s="307"/>
+      <c r="C101" s="308"/>
+      <c r="D101" s="309"/>
+      <c r="E101" s="311"/>
       <c r="F101" s="137"/>
       <c r="G101" s="137"/>
       <c r="H101" s="174"/>
@@ -22696,14 +22714,14 @@
       <c r="CS118" s="137"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="374" t="s">
+      <c r="A119" s="373" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="375"/>
-      <c r="C119" s="386"/>
+      <c r="B119" s="374"/>
+      <c r="C119" s="385"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
-        <v>3393290</v>
+        <v>3388430</v>
       </c>
       <c r="E119" s="204"/>
       <c r="F119" s="137"/>
@@ -22903,14 +22921,14 @@
       <c r="CS120" s="137"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="374" t="s">
+      <c r="A121" s="373" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="375"/>
-      <c r="C121" s="375"/>
+      <c r="B121" s="374"/>
+      <c r="C121" s="374"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
-        <v>3393290</v>
+        <v>3388430</v>
       </c>
       <c r="E121" s="204"/>
       <c r="F121" s="137"/>
@@ -34143,7 +34161,7 @@
   </sheetPr>
   <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -34163,35 +34181,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="390" t="s">
+      <c r="A1" s="389" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="392"/>
+      <c r="B1" s="390"/>
+      <c r="C1" s="390"/>
+      <c r="D1" s="390"/>
+      <c r="E1" s="391"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="396" t="s">
+      <c r="A2" s="395" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="398"/>
+      <c r="B2" s="396"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="397"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="393" t="s">
+      <c r="A3" s="392" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="394"/>
-      <c r="C3" s="394"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="395"/>
+      <c r="B3" s="393"/>
+      <c r="C3" s="393"/>
+      <c r="D3" s="393"/>
+      <c r="E3" s="394"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34214,15 +34232,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="398" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="400"/>
+      <c r="B4" s="399"/>
       <c r="C4" s="258"/>
-      <c r="D4" s="401" t="s">
+      <c r="D4" s="400" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="402"/>
+      <c r="E4" s="401"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -34346,7 +34364,7 @@
       <c r="Y7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="21.75">
-      <c r="A8" s="325"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="259"/>
       <c r="C8" s="39"/>
       <c r="D8" s="235"/>
@@ -34443,20 +34461,20 @@
       <c r="Y10" s="7"/>
     </row>
     <row r="11" spans="1:25" ht="21.75">
-      <c r="A11" s="333" t="s">
+      <c r="A11" s="332" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="354">
+      <c r="B11" s="353">
         <f>B6-B9-B10</f>
         <v>195879.3014</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="326"/>
+      <c r="D11" s="325"/>
       <c r="E11" s="242"/>
       <c r="F11" s="7"/>
       <c r="G11" s="232"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="347"/>
+      <c r="I11" s="346"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -34504,7 +34522,7 @@
       <c r="Y12" s="7"/>
     </row>
     <row r="13" spans="1:25" ht="21.75">
-      <c r="A13" s="346"/>
+      <c r="A13" s="345"/>
       <c r="B13" s="259"/>
       <c r="C13" s="40"/>
       <c r="D13" s="39" t="s">
@@ -34535,9 +34553,9 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="21.75">
-      <c r="A14" s="328"/>
-      <c r="B14" s="329"/>
-      <c r="C14" s="327"/>
+      <c r="A14" s="327"/>
+      <c r="B14" s="328"/>
+      <c r="C14" s="326"/>
       <c r="D14" s="39"/>
       <c r="E14" s="240"/>
       <c r="F14" s="7"/>
@@ -34562,7 +34580,7 @@
       <c r="Y14" s="7"/>
     </row>
     <row r="15" spans="1:25" ht="21.75">
-      <c r="A15" s="332"/>
+      <c r="A15" s="331"/>
       <c r="B15" s="259"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -34589,7 +34607,7 @@
       <c r="Y15" s="7"/>
     </row>
     <row r="16" spans="1:25" ht="21.75">
-      <c r="A16" s="325"/>
+      <c r="A16" s="324"/>
       <c r="B16" s="259"/>
       <c r="C16" s="40"/>
       <c r="D16" s="122"/>
@@ -34685,13 +34703,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" thickBot="1">
-      <c r="A19" s="387" t="s">
+      <c r="A19" s="386" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="388"/>
-      <c r="C19" s="388"/>
-      <c r="D19" s="388"/>
-      <c r="E19" s="389"/>
+      <c r="B19" s="387"/>
+      <c r="C19" s="387"/>
+      <c r="D19" s="387"/>
+      <c r="E19" s="388"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -34714,17 +34732,17 @@
       <c r="Y19" s="7"/>
     </row>
     <row r="20" spans="1:25" ht="22.5">
-      <c r="A20" s="320" t="s">
+      <c r="A20" s="319" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="321">
+      <c r="B20" s="320">
         <v>179210</v>
       </c>
-      <c r="C20" s="322"/>
-      <c r="D20" s="323" t="s">
+      <c r="C20" s="321"/>
+      <c r="D20" s="322" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="324">
+      <c r="E20" s="323">
         <v>443590</v>
       </c>
       <c r="F20" s="5"/>
@@ -34747,17 +34765,17 @@
       <c r="Y20" s="7"/>
     </row>
     <row r="21" spans="1:25" ht="22.5">
-      <c r="A21" s="339" t="s">
+      <c r="A21" s="338" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="340">
+      <c r="B21" s="339">
         <v>25000</v>
       </c>
-      <c r="C21" s="341"/>
-      <c r="D21" s="342" t="s">
+      <c r="C21" s="340"/>
+      <c r="D21" s="341" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="343">
+      <c r="E21" s="342">
         <v>441400</v>
       </c>
       <c r="F21" s="5"/>
@@ -34780,17 +34798,17 @@
       <c r="Y21" s="7"/>
     </row>
     <row r="22" spans="1:25" ht="22.5">
-      <c r="A22" s="348" t="s">
+      <c r="A22" s="347" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="350">
+      <c r="B22" s="349">
         <v>30000</v>
       </c>
-      <c r="C22" s="341"/>
-      <c r="D22" s="342" t="s">
+      <c r="C22" s="340"/>
+      <c r="D22" s="341" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="343">
+      <c r="E22" s="342">
         <v>200000</v>
       </c>
       <c r="F22" s="5"/>
@@ -34813,7 +34831,7 @@
       <c r="Y22" s="7"/>
     </row>
     <row r="23" spans="1:25" ht="21.75">
-      <c r="A23" s="349" t="s">
+      <c r="A23" s="348" t="s">
         <v>220</v>
       </c>
       <c r="B23" s="120">
@@ -35172,17 +35190,17 @@
       <c r="Y34" s="7"/>
     </row>
     <row r="35" spans="1:25" ht="21.75">
-      <c r="A35" s="344" t="s">
+      <c r="A35" s="343" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="345">
+      <c r="B35" s="344">
         <v>20000</v>
       </c>
-      <c r="C35" s="336"/>
-      <c r="D35" s="337" t="s">
+      <c r="C35" s="335"/>
+      <c r="D35" s="336" t="s">
         <v>213</v>
       </c>
-      <c r="E35" s="338">
+      <c r="E35" s="337">
         <v>50500</v>
       </c>
       <c r="G35" s="16"/>
@@ -35200,17 +35218,17 @@
       <c r="Y35" s="7"/>
     </row>
     <row r="36" spans="1:25" ht="21.75">
-      <c r="A36" s="334" t="s">
+      <c r="A36" s="333" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="335">
+      <c r="B36" s="334">
         <v>18540</v>
       </c>
-      <c r="C36" s="336"/>
-      <c r="D36" s="337" t="s">
+      <c r="C36" s="335"/>
+      <c r="D36" s="336" t="s">
         <v>218</v>
       </c>
-      <c r="E36" s="338">
+      <c r="E36" s="337">
         <v>60000</v>
       </c>
       <c r="G36" s="16"/>
@@ -35228,13 +35246,13 @@
       <c r="Y36" s="7"/>
     </row>
     <row r="37" spans="1:25" ht="22.5" thickBot="1">
-      <c r="A37" s="330" t="s">
+      <c r="A37" s="329" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="331">
+      <c r="B37" s="330">
         <v>15030</v>
       </c>
-      <c r="C37" s="319"/>
+      <c r="C37" s="318"/>
       <c r="D37" s="271" t="s">
         <v>133</v>
       </c>
